--- a/assets/Year2023text/combined/2023_student_6.xlsx
+++ b/assets/Year2023text/combined/2023_student_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,27 +458,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Original Code: https://p5play.org https://editor.p5js.org/quinton-ashley/sketches/szN_XdV5O  Trial and error: I initially started with saving the code on my desktop and updating it with notepad, however it was difficult to see the effect of my changes. </t>
+          <t xml:space="preserve">How to incorporate technological tool:  Klotski: wood, laser cut or engraved Tangrams: 3d printed pieces, 2d constructed boards, 3d wood base for board, velcro Sculpture: clay Pom pom pets: gather materials from lab, construct accessories using circuit ? </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7867687344551086</v>
+        <v>0.7479255199432373</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">I was able to change the directions in which they moved and adjust the speed by updating the velocity  Pseudocode  I was having difficulty changing the background, so I then switched over to the js5 editor and started to work there. </t>
+          <t xml:space="preserve">History cards: 2d illustration design, print, laminate Sound when opening the box: gogo board Snitch: construct using lab materials, sewing it using sewing machine  Powerful Responses from User-testing Interview  "Everything is more fun when its physical; I felt every activity is less engaging when conducting virtually because you never know who is the host..."  Ideas before Interview #2:  There are four sections in this game box, each corresponding to one of the Harry Potter houses. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,18 +487,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5278916954994202</v>
+        <v>0.5608336925506592</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">I then found additional code that I could add to change shapes and colors of the "sprites" so I experimented with the dots, polygon and star shape. </t>
+          <t xml:space="preserve">We are going to change the cards to get rid of the word scramble and instead redesign it as a 2 player game, where one player guesses the historical figure  An example of how the box could look; we hope to including some code/electronic/mechanism elements into the design - when the box opens it will make a sound by connecting it to a gogo board. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,18 +507,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5536707639694214</v>
+        <v>0.6046757102012634</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Each one reacted differently - the polygon had a "collide" and "bounce" reaction, whereas the star held the sprites inside of its borders  The code remix was quite challenging when I was getting started and trying to figure out how to use the libraries. </t>
+          <t xml:space="preserve">We will construct ones with numbers as she prefers, instead of the picture and number types shown here  Four things that we mainly focus on our user-testing process was:  1. </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -527,58 +527,58 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5742648839950562</v>
+        <v>0.7441791892051697</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">I had difficulty changing the background of the game, as I initially wanted to switch it out to look like a video game background. </t>
+          <t xml:space="preserve">DinoQuake  Changes to Design: - Now a storytelling kit, with background and moveable parts - Added a recorder/repeater to add sounds to the dino  Prototype Progress: - Legs only worked occasionally on a cardboard prototype (not brought to interview) - 3D-printed body based on a design we found online - Background for storytelling kit built with Quake embroidered and red LEDs sewn inÂ â  Observations From Interview: - Colt said âit doesnât talkâ but didnât mention much about the moving -Question: what does Quake walk on? </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.714338481426239</v>
+        <v>0.6710153222084045</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Original code: Follow  (with pseudocode)  Biggest learnings from the pseudocode exercise 1. </t>
+          <t xml:space="preserve">However, testing a prototype with none of the features we had originally planned, the kid still really enjoyed the toy. </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6559845805168152</v>
+        <v>0.7712923288345337</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">draw() is the key to create interactive graphics and animation 3. </t>
+          <t xml:space="preserve">We added circuit playground to the saddle of the horse and enabled Koko to play with it when you put another stuffed animal on top of the horse by pressing a button. </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,18 +587,18 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5406166315078735</v>
+        <v>0.5681748986244202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">New design idea 1: I wanted to make a snake game/"fish eat fish" type of experience and realized that it would be too difficult  After playing around the code, I realized that frameRate() is a intersting function so I kept it  New design idea 2: I got interested in this movement and wanted a drawing effect to show the trail/track of the movement  I did not know how to search for the effect I wanted at first. </t>
+          <t xml:space="preserve">We built two options no control the motor of the carriage: use of a switch or remote control. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -607,18 +607,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5580220222473145</v>
+        <v>0.778372585773468</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">New design:  Art tool (and a math learning tool)  Changes made based on the original code 1. </t>
+          <t xml:space="preserve">B) Carriage Option 1 : Control the carriage with a switch in Gogo 6 Option 2 : Control the carriage with a remote control in Gogo 5  While creating the carriage and making the motor work, we observed that the wheels turned in different directions. </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -627,18 +627,18 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7186627388000488</v>
+        <v>0.7599920630455017</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Added a slider to control the frame rate and a clear button to reset the canvas  A user can adjust the frame rate with the slider. </t>
+          <t xml:space="preserve">Akio explained us that the reason of this situation was the polarity: the cables of each wheel were different and we had to introduce some changes in the code the Gogo 5 (one wheel turns clockwise and the other one counter-clockwise). </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -647,18 +647,18 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5504080057144165</v>
+        <v>0.6831264495849609</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">When the rate is higher, the lines are denser from before and present a different artistic feeling  I tried changing the color and length of the strokes in the code. </t>
+          <t xml:space="preserve">In Gogo 6, the polarity of cables didn't affect the code and the carriage goes forward turning clockwise. </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -667,38 +667,38 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5210323929786682</v>
+        <v>0.6867532730102539</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Given more time, I will build them as buttons or sliders for users to play with  1.Building connection with other knowledge: coding is a great way to learn math and also concepts of physics. </t>
+          <t xml:space="preserve">Test of the prototype (2nd Interview with Koko)  General Setup Prototype markers/paper &gt;&gt; let Koko to express freely Extra gogoboard Horse Diagram  Koko expressed interest on buttons/functions of gogo board; she showed that those are what her dad/brother are good at, so hopefully, this toy can empower her (woman) STEM identity. </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.731347382068634</v>
+        <v>0.520557701587677</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Learning code is like learning another language that is rooted in computational thinking. </t>
+          <t xml:space="preserve">We will use the laser cutter to cut multiple slots in the board to allow him to customize and move the sticks to different locations to create his own obstacles at different heights around the board. </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -707,58 +707,58 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6224501729011536</v>
+        <v>0.6595578789710999</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">However, constructionist way of learning coding gave me an understanding of what codes can do and build self-efficacy. </t>
+          <t xml:space="preserve">There will be lights on the hoops that can be switched on/off or change colors. </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6367930769920349</v>
+        <v>0.647237241268158</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">I now know how to debug and solve problems on my own. </t>
+          <t xml:space="preserve">We will drill holes into the sticks to allow him to connect pipe cleaners to create different shapes with. </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5747784972190857</v>
+        <v>0.6379289627075195</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">First I created a rectangle to put inside the buttons. </t>
+          <t xml:space="preserve">Process of creating a switch that can change the color of the LED lights. </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -767,38 +767,38 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6647347211837769</v>
+        <v>0.5906245708465576</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">I didn't know how to do the buttons, but with the help of Akio and the references I was able to create. </t>
+          <t xml:space="preserve">These will be added to the loops on the obstacle course and he will be able to control the lights by using the switch. </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6040099263191223</v>
+        <v>0.6405292749404907</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Play the video to see the code working! </t>
+          <t xml:space="preserve">Prototype Testing: we added different materials and objects to test whether the drone would fly with added weight, or different shapes, and how this affected control and maneuvering around objects. </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -807,38 +807,38 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5652314424514771</v>
+        <v>0.7641851902008057</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">But after I was able to create the reset button :)  Along with my code is possible to read my pseudocode where I explain my choices. </t>
+          <t xml:space="preserve">We added circuit playground to the saddle of the horse and enabled Koko to play with it when you put another stuffed animal on top of the horse by pressing a button. </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5326899886131287</v>
+        <v>0.5681748986244202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">I wanted to add a button but didn't know how, so I looked for references and even sought help from ChatGPT. </t>
+          <t xml:space="preserve">We built two options no control the motor of the carriage: use of a switch or remote control. </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -847,78 +847,78 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5686148405075073</v>
+        <v>0.778372585773468</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">With Akio's help and my own research, I was able to find a simple code that I felt comfortable with. </t>
+          <t xml:space="preserve">B) Carriage Option 1 : Control the carriage with a switch in Gogo 6 Option 2 : Control the carriage with a remote control in Gogo 5  While creating the carriage and making the motor work, we observed that the wheels turned in different directions. </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.7519181370735168</v>
+        <v>0.7599920630455017</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">I dedicated a significant amount of time to styling the code and making it look good. </t>
+          <t xml:space="preserve">Akio explained us that the reason of this situation was the polarity: the cables of each wheel were different and we had to introduce some changes in the code the Gogo 5 (one wheel turns clockwise and the other one counter-clockwise). </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8133167028427124</v>
+        <v>0.6831264495849609</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">This project was especially meaningful to me as my daughter had asked me to draw on my computer using paint, so finding a suitable code was a fun challenge. </t>
+          <t xml:space="preserve">In Gogo 6, the polarity of cables didn't affect the code and the carriage goes forward turning clockwise. </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.7776041030883789</v>
+        <v>0.6867532730102539</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Link to original project with pseudocode comments: https://editor.p5js.org/hh2867/sketches/RfEPqAr6A  Link to NEW project with pseudocode comments on what has been reiterated: https://editor.p5js.org/hh2867/sketches/F5u02Xbj_  Summary of what I changed:  I turned the simple foggy forest into a meditation experience with purpose. </t>
+          <t xml:space="preserve">Test of the prototype (2nd Interview with Koko)  General Setup Prototype markers/paper &gt;&gt; let Koko to express freely Extra gogoboard Horse Diagram  Koko expressed interest on buttons/functions of gogo board; she showed that those are what her dad/brother are good at, so hopefully, this toy can empower her (woman) STEM identity. </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -927,18 +927,18 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.67035973072052</v>
+        <v>0.520557701587677</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">For this I was able to utilize other codes in the p5js gallery by looking at how various people had made rain. </t>
+          <t xml:space="preserve">Adding digital affordability  We researched extensively about toys for developing technological competency and computational thinking, such as Cubetto. </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -947,18 +947,18 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5207165479660034</v>
+        <v>0.5074368715286255</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">I knew what I needed to happen and what the computer needed to be told to make it happen, but it took me a bit to figure out the correct 'if, else' statement to make it happen. </t>
+          <t xml:space="preserve">Therefore, I used Photoshop, Blender and Spark AR Studio and made a interactive 3D sticker prototype, where a 3D Melody will appear upon detection of smile. </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -967,38 +967,38 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6017066836357117</v>
+        <v>0.5526301264762878</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">This portion really taught me how to problem-solve. </t>
+          <t xml:space="preserve">Adding digital affordability  We researched extensively about toys for developing technological competency and computational thinking, such as Cubetto. </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7389010787010193</v>
+        <v>0.5074368715286255</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inspiration  Pseudocode  How chatGPT helped me understand some of the functions that's not in the P5Js documentation: https://docs.google.com/document/d/1eFn8tIhPKjN6LbFnvKq4dM_LRPCFKbp6VwpUPaz8epM/edit?usp=sharing  Remixing  Reflection Card: Adding the pseudocode "forced" me to think about what each line means and does in the code. </t>
+          <t xml:space="preserve">Therefore, I used Photoshop, Blender and Spark AR Studio and made a interactive 3D sticker prototype, where a 3D Melody will appear upon detection of smile. </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1007,18 +1007,18 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5899074673652649</v>
+        <v>0.5526301264762878</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ORIGINAL CODE choose a "Pattern Creator" code to explore and remix. </t>
+          <t xml:space="preserve">We will use the laser cutter to cut multiple slots in the board to allow him to customize and move the sticks to different locations to create his own obstacles at different heights around the board. </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1027,18 +1027,18 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7711911201477051</v>
+        <v>0.6595578789710999</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Here is the link: Code: https://showcase.p5js.org/#/2022-All/pattern-creator/  TINKERING WITH THE CODE 1- I read line by line to understand the code and its functions; 2 - For the functions that I couldn't understand, especially the ones that used Cos and Sen calculations, I changed the number to observe changes. </t>
+          <t xml:space="preserve">There will be lights on the hoops that can be switched on/off or change colors. </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1047,18 +1047,18 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6171656250953674</v>
+        <v>0.647237241268158</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">platform helped me translate to p5.Js language what I wanted to do on the code, but I didn't know how to write it. </t>
+          <t xml:space="preserve">We will drill holes into the sticks to allow him to connect pipe cleaners to create different shapes with. </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1067,18 +1067,18 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5088778734207153</v>
+        <v>0.6379289627075195</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Remix Code 1 - my first test was to change the fixed pattern numbers by setting up the initial pattern with my birthday date; 2 - as a coincidence, the createPattern(120, 5.1, 988) created a pattern that resembled a prism dispersing light into color from Pink Floyd's album: the Dark Side of the Moon. </t>
+          <t xml:space="preserve">Process of creating a switch that can change the color of the LED lights. </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1087,18 +1087,18 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.7447366714477539</v>
+        <v>0.5906245708465576</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Due to this, I decided to add music to my remix code. </t>
+          <t xml:space="preserve">These will be added to the loops on the obstacle course and he will be able to control the lights by using the switch. </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1107,18 +1107,18 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5302634835243225</v>
+        <v>0.6405292749404907</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Once I wrote the code, the pattern start point changed from one drawing to another, and it did not spin. </t>
+          <t xml:space="preserve">Prototype Testing: we added different materials and objects to test whether the drone would fly with added weight, or different shapes, and how this affected control and maneuvering around objects. </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1127,38 +1127,38 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5940549969673157</v>
+        <v>0.7641851902008057</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">As a learning reflection, this was a challenging assignment. </t>
+          <t xml:space="preserve">How to incorporate technological tool:  Klotski: wood, laser cut or engraved Tangrams: 3d printed pieces, 2d constructed boards, 3d wood base for board, velcro Sculpture: clay Pom pom pets: gather materials from lab, construct accessories using circuit ? </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6938643455505371</v>
+        <v>0.7479255199432373</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Link to Original Code: https://editor.p5js.org/reajmorais/sketches/8UxKOWank  Video of what the original project looks like  Original Code of the Project  For me, the most challenging part of dissecting the original code was first, determining which object was actually moving, was the background that was moving? </t>
+          <t xml:space="preserve">History cards: 2d illustration design, print, laminate Sound when opening the box: gogo board Snitch: construct using lab materials, sewing it using sewing machine  Powerful Responses from User-testing Interview  "Everything is more fun when its physical; I felt every activity is less engaging when conducting virtually because you never know who is the host..."  Ideas before Interview #2:  There are four sections in this game box, each corresponding to one of the Harry Potter houses. </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1167,18 +1167,18 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7786223888397217</v>
+        <v>0.5608336925506592</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">My answer to that question came from "messing around" with different parts of the code in order to figure out each code's purpose. </t>
+          <t xml:space="preserve">We are going to change the cards to get rid of the word scramble and instead redesign it as a 2 player game, where one player guesses the historical figure  An example of how the box could look; we hope to including some code/electronic/mechanism elements into the design - when the box opens it will make a sound by connecting it to a gogo board. </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1187,18 +1187,18 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7249158620834351</v>
+        <v>0.6046757102012634</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">As part of the new project I was creating, I coded the airplane, whereas, in the original project, it was not the case. </t>
+          <t xml:space="preserve">We will construct ones with numbers as she prefers, instead of the picture and number types shown here  Four things that we mainly focus on our user-testing process was:  1. </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1207,831 +1207,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.679989755153656</v>
+        <v>0.7441791892051697</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Link to  the modified code with new interactions - aka the "new" project code as well as the pseudocode:  https://editor.p5js.org/zw2754/sketches/6yKBRaSAt  Video of the new project:  Screenshot of the new/modified code  Summary of the major changes(codes) I've made to the new project:  I have changed the background music by uploading my favorite music to the Sketch assets and then calling it afterwards I wrote new code to create an airplane to replace the original train object and then allowed it to move with my mouse so I could control it anywhere I wanted to go In order to match my theme, I change the frame size and speed of the mov  Creative Code Reflecting and Learning  Throughout the dissect/remix/re-create code process. </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5797219276428223</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Learning happens through constantly trying, exploring, analyzing what you observe, and reflecting on the steps you have tried. </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.572192370891571</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Original Project Animation  Original Project Link: https://editor.p5js.org/jooprojects/full/Y6T0202my  Original Code: https://editor.p5js.org/jooprojects/sketches/Y6T0202my  Reflection Card: When remixing, it is difficult to think outside the constraints of what is already built. </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5289707779884338</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It also took a lot longer than I expected to come up with a remix idea and then implement it. </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0.4537266790866852</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Because of this, I wasn't able to add the sound component that I wanted, because I couldn't add the sound library, and didn't leave myself enough time to explore other options to add the sound library. </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.8163641095161438</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When remixing, it is difficult to think outside the constraints of what is already built. </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.6737696528434753</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It also took a lot longer than I expected to come up with a remix idea and then implement it. </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.4537266790866852</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Because of this, I wasn't able to add the sound component that I wanted, because I couldn't add the sound library, and didn't leave myself enough time to explore other options to add the sound library. </t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.8163641095161438</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It is very visible in commented out code where the creator experimented on their own work and gave me inspiration to pursue my own remixing  Pseudocode: https://docs.google.com/document/d/1Kwy9dI7jchvXM-6i0zSzKDrNF05c9FHQtFuoJbqRCfI/edit?usp=sharing  Here is where I learned about user interaction through mouseIsPressed boolean  In redesign, I realized that the frameCount means that the ellipses are moving further apart, which makes the flowers appear bigger, but kind of ruins my heart shape in redesign  I don't understand how the effect of frameCount affects the shape of the flowers, both in placement and creation  Changes to Code: 1. </t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.427958756685257</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Original code: I went through a few different coding iterations, trying out different ideas in an html format using a shader and htlm. </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0.726994514465332</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ultimately, I moved away from this because although I could create the html and add text, I couldn't get the p5.js codes for shaders to run properly after 4 days. </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.8120082020759583</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I decided finally on this project: My comments can be found here and below: This code drew me in because of its use of sine. </t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5648409128189087</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I've always felt called to the natural waves of sine curves, and in this case, it felt connected to water and breathing, which are both very calming for me, so it felt appropriate to remix. </t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.7173401713371277</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I started off using more complex codes from open source libraries, and was frustrated trying to figure out what they were saying. </t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0.7730002403259277</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instead of being frustrated at what I did not know, I moved into simpler codes and practiced translating what I did know and understanding! </t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.4181957244873047</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Although many of my translations didn't "translate" into my final project, they were crucial steps in the beginning/middle to my exploration, applying, learning, and reflecting,  Remix code: https://youtu.be/EKHuIGBPofs At first, I was browsing aimlessly looking for ideas and just trying to understand what different codes were saying. </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.6603967547416687</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I like this code because it had a movement element that I felt could convey similar movements to breathing. </t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0.6979081034660339</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When completing my remix, I tried adding pictures, gifs, appearing/disappearing text, shaders, and rotating circles, but it all felt too complicated for the message I was trying to convey. </t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0.4777674674987793</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reflection Card: I went through 7 iterations using different code blocks, although the most surprising knowledge came from working with htlms. </t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.4568066000938416</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I knew htlms were websites, and I knew they were coded, and I knew javascript existed, but I did not know how they all fit together. </t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.6166676878929138</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">At first, I was really confused trying to run my code in p5js because I wanted it to be a website. </t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.6594226360321045</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I used online resources to learn that I needed another application (I used Brackets) and html starter code and then it would make a website. </t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.6959449052810669</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">original code  My code  Reflection Card: I remix this character board by infusing in words and characters that are personally meaningful to me, that is a mixture of Chinese characters from my favorite poems, English letters, and the numbers 0,1 which represent the digital world we live in. </t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0.6505783200263977</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Original Code Link New Code Link Zoom in Video  if you press "s" you can save screenshot via code  Insight  LVN (which I got to know at MIT media lab) is a AI-powered listening and analytic tool help users see patterns across conversation, identify theme, and highlight voices around what matters most in the community. </t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5831767320632935</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Getting data from LVN, I extracted the keywords in NY and Education that happened in Manhattan which is my current community and put them into the array of my code and so that they could be displayed on the screen. </t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.7180995345115662</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The orbit rotation also represents the shape of  manhattan (which is tilted little right)  Trial &amp; Error  I wanted to add sound to the background Akio helped me and we tried to copy the code from the processing website it did not work, unfortunately, giving unfathomable errors. </t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0.7446824312210083</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">However, for some reason which I cannot decipher, it did not run on my computer. </t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5952799320220947</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reflection Card: 1) By writing pseudocode, I was able to comprehend most reasoning behind every graphics. </t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.545387327671051</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Code Remix:   The story of learning to code: Live information from my coding learning process  My first idea was to work on a project that had an interactive component between the body of the user and the computer. </t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0.6465307474136353</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I started working with another project:  ORIGINAL PROJECT  Pseudo code comments  Video Recording  Visualization  Code  The exercise of writing pseudocode allowed me to review the foundation of coding and trying to fix some of the basic notions. </t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0.6025251746177673</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">At the beginning, this function and measures scared me. </t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0.9026225805282593</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I still don't understand the whole code, but I was able to play with the speed numbers change and the interval. </t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0.5708193182945251</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REMIX CODE  Pseudo code with changes Video Recording Visualization Code  I decided to start with something simple, so I changed colors with picker color and change the name in the entire code to make it coherent to the reader/programmer. </t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0.7025730013847351</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Megan suggested to use COMMAND + F to not forget any piece of code. </t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0.7047681212425232</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I wanted to add music to this code remix and Inara helped me. </t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0.5884823203086853</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">At the beginning, I was worried because code is still difficult for me. </t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0.8012274503707886</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">At the end of the task I started feeling more comfortable with the code, and I was able to introduce more important changes. </t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0.7564206719398499</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The pseudocode helped me to understand the code, but until the end of my task I was discovering new functions and meanings. </t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0.509166955947876</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Remixing a code helps to have a foundation where you can start programming, because an empty white page can be hard for beginners. </t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0.4475867748260498</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When I felt I was breaking the code, asking for help to my peers and teacher assistants was a good way to feel that things were not so complicated: we just needed some tools and tricks. </t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0.4153512418270111</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>During the process, I just thought about the difficulties to code, so I decided to build a live data visualization of my code learning process.</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>0.6240835189819336</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>07</t>
         </is>
       </c>
     </row>
